--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3552.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3552.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.5513824387286</v>
+        <v>0.8538402915000916</v>
       </c>
       <c r="B1">
-        <v>1.67859292919889</v>
+        <v>1.084203720092773</v>
       </c>
       <c r="C1">
-        <v>1.95200666501872</v>
+        <v>1.599539756774902</v>
       </c>
       <c r="D1">
-        <v>3.256516561720023</v>
+        <v>2.268487691879272</v>
       </c>
       <c r="E1">
-        <v>3.754374565739251</v>
+        <v>1.74068295955658</v>
       </c>
     </row>
   </sheetData>
